--- a/xlsx/美国政治_intext.xlsx
+++ b/xlsx/美国政治_intext.xlsx
@@ -15,1419 +15,1401 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
   <si>
     <t>美国政治</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>麦克·彭斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>美国总统行政办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
+  </si>
+  <si>
+    <t>保罗·莱恩</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
+  </si>
+  <si>
+    <t>en-Party leaders of the United States House of Representatives</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
+  </si>
+  <si>
+    <t>奥林·哈奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
+  </si>
+  <si>
+    <t>美国参议院政党领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·格洛佛·罗伯茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国中期选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>美国第三党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国政党列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_government</t>
+  </si>
+  <si>
+    <t>en-State government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>地方政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>州长 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
+  </si>
+  <si>
+    <t>en-State legislature (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>州法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国外交关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国政治列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>Template talk-美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C</t>
+  </si>
+  <si>
+    <t>共和</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>自由意志党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E4%BA%BA%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>选举人票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
+  </si>
+  <si>
+    <t>选举权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>两院制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>无党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>一院制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%81%9C%E6%93%BA</t>
+  </si>
+  <si>
+    <t>美国政府停摆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国的州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E8%BF%AA%E6%81%A9</t>
+  </si>
+  <si>
+    <t>霍华德·迪恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>言论自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
+  </si>
+  <si>
+    <t>清教徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>五月花号公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>英国君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
+  </si>
+  <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
+  </si>
+  <si>
+    <t>刑法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E7%94%A2</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>立法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
+  </si>
+  <si>
+    <t>普选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84</t>
+  </si>
+  <si>
+    <t>慈善</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
+  </si>
+  <si>
+    <t>镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
+  </si>
+  <si>
+    <t>行政长官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B8%82%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>旧金山市县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1%E5%B8%82%E8%88%87%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>檀香山市与县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国人口调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
+  </si>
+  <si>
+    <t>上诉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%95%86%E6%B3%95</t>
+  </si>
+  <si>
+    <t>海商法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
+  </si>
+  <si>
+    <t>破产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%9D%83</t>
+  </si>
+  <si>
+    <t>民权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>专利权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AE%89%E5%85%A8%E8%99%9F%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>社会安全号码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美利坚合众国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%B3</t>
+  </si>
+  <si>
+    <t>美国开国元勳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>孤立主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>门罗主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%A4%A7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>超级大国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>国际主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93</t>
+  </si>
+  <si>
+    <t>亚历山大·汉密尔顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%BC%97%E9%81%9C</t>
+  </si>
+  <si>
+    <t>杰弗逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>辉格党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E9%81%9C</t>
+  </si>
+  <si>
+    <t>安德鲁·杰克逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>奴隶制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>进步主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1860%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>1860年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民粹主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>小政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>多元文化主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
+  </si>
+  <si>
+    <t>罗斯·佩罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%B9%E9%9D%A9%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国改革党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>1996年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>1992年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>工党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>保守党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%80%A7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>刚性政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>游说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
+  </si>
+  <si>
+    <t>税收</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
+  </si>
+  <si>
+    <t>罢工</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>工会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>亚洲太平洋经济合作会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>亚洲开发银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>国际清算银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧洲理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E7%A0%94%E7%A9%B6%E6%89%80</t>
+  </si>
+  <si>
+    <t>欧洲粒子物理研究所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧洲经济委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E7%BB%8F%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>亚太经社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E5%86%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>粮农组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>八国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/G-10</t>
+  </si>
+  <si>
+    <t>G-10</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9C%8B%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>二十国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8E%9F%E5%AD%90%E8%83%BD%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>国际原子能机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A4%8D%E5%85%B4%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>国际复兴开发银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E9%97%B4%E8%88%AA%E7%A9%BA%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际民间航空组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%BC%80%E5%8F%91%E5%8D%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国际开发协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>国际金融公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8A%B3%E5%B7%A5%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际劳工组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际货币基金组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>国际海事组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Inmarsat</t>
+  </si>
+  <si>
+    <t>Inmarsat</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际刑警组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国际奥林匹克委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E5%8C%96%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际标准化组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E4%BF%A1%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际电信联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NAM</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>北大西洋公约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>美洲国家组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OSCE</t>
+  </si>
+  <si>
+    <t>OSCE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>联合国系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>联合国安全理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E9%9A%BE%E6%B0%91%E4%BA%8B%E5%8A%A1%E9%AB%98%E7%BA%A7%E4%B8%93%E5%91%98</t>
+  </si>
+  <si>
+    <t>联合国难民事务高级专员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%B7%A5%E4%B8%9A%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>联合国工业发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>联合国大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E5%9B%BD%E9%82%AE%E6%94%BF%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>万国邮政联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%AB%E7%94%9F%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界卫生组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WIPO</t>
+  </si>
+  <si>
+    <t>WIPO</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%94%E8%B1%A1%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界气象组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>绿党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>自由党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>宪法党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>深层政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国医疗系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>美国新闻自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>阿根廷政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>巴拉圭政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>巴西政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>秘鲁政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>海地政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美利坚合众国</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>麥克·彭斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>美国总统行政办公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
-  </si>
-  <si>
-    <t>保羅·萊恩</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
-  </si>
-  <si>
-    <t>en-Party leaders of the United States House of Representatives</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
-  </si>
-  <si>
-    <t>奧林·哈奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
-  </si>
-  <si>
-    <t>美国参议院政党领袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>約翰·格洛佛·羅伯茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國中期選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>美国第三党派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国政党列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_government</t>
-  </si>
-  <si>
-    <t>en-State government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>地方政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>州長 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
-  </si>
-  <si>
-    <t>en-State legislature (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>州法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美国外交关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国政治列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>Template talk-美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C</t>
-  </si>
-  <si>
-    <t>共和</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國聯邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>美國內戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>自由意志黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E4%BA%BA%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>选举人票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
-  </si>
-  <si>
-    <t>选举权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>議會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>兩院制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>無黨派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>一院制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%81%9C%E6%93%BA</t>
-  </si>
-  <si>
-    <t>美國政府停擺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美国的州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
-  </si>
-  <si>
-    <t>广告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E8%BF%AA%E6%81%A9</t>
-  </si>
-  <si>
-    <t>霍華德·迪恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>言論自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
-  </si>
-  <si>
-    <t>清教徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>五月花號公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>英國君主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
-  </si>
-  <si>
-    <t>傳媒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
-  </si>
-  <si>
-    <t>刑法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E7%94%A2</t>
-  </si>
-  <si>
-    <t>房地產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
-  </si>
-  <si>
-    <t>行政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>立法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
-  </si>
-  <si>
-    <t>普選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84</t>
-  </si>
-  <si>
-    <t>慈善</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
-  </si>
-  <si>
-    <t>鎮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
-  </si>
-  <si>
-    <t>行政長官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委員會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B8%82%E5%8E%BF</t>
-  </si>
-  <si>
-    <t>旧金山市县</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1%E5%B8%82%E8%88%87%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>檀香山市與縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國人口調查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三權分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
-  </si>
-  <si>
-    <t>上訴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%95%86%E6%B3%95</t>
-  </si>
-  <si>
-    <t>海商法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
-  </si>
-  <si>
-    <t>破產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%9D%83</t>
-  </si>
-  <si>
-    <t>民权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>專利權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AE%89%E5%85%A8%E8%99%9F%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>社會安全號碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美利坚合众国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>獨立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%B3</t>
-  </si>
-  <si>
-    <t>美國開國元勳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會民主主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>孤立主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>門羅主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%A4%A7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>超級大國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>国际主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93</t>
-  </si>
-  <si>
-    <t>亞歷山大·漢密爾頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>聯邦黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%BC%97%E9%81%9C</t>
-  </si>
-  <si>
-    <t>傑弗遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>輝格黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E9%81%9C</t>
-  </si>
-  <si>
-    <t>安德魯·傑克遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>奴隶制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>進步主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1860%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>1860年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民粹主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>小政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>多元文化主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
-  </si>
-  <si>
-    <t>罗斯·佩罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%B9%E9%9D%A9%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国改革党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>1996年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>1992年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>工黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>保守黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%80%A7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>剛性政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>遊說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
-  </si>
-  <si>
-    <t>税收</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
-  </si>
-  <si>
-    <t>罷工</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>工會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>亞洲太平洋經濟合作會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>亚洲开发银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>國際清算銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧洲理事会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E7%A0%94%E7%A9%B6%E6%89%80</t>
-  </si>
-  <si>
-    <t>欧洲粒子物理研究所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧洲经济委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E7%BB%8F%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>亚太经社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E5%86%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>粮农组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>八国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/G-10</t>
-  </si>
-  <si>
-    <t>G-10</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9C%8B%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>二十國集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8E%9F%E5%AD%90%E8%83%BD%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>国际原子能机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A4%8D%E5%85%B4%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>国际复兴开发银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E9%97%B4%E8%88%AA%E7%A9%BA%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际民间航空组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%BC%80%E5%8F%91%E5%8D%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国际开发协会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>国际金融公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8A%B3%E5%B7%A5%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际劳工组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际货币基金组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>國際海事組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Inmarsat</t>
-  </si>
-  <si>
-    <t>Inmarsat</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际刑警组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国际奥林匹克委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E5%8C%96%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际标准化组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E4%BF%A1%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>国际电信联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NAM</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>美洲国家组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作与发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/OSCE</t>
-  </si>
-  <si>
-    <t>OSCE</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>联合国系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>联合国安全理事会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E9%9A%BE%E6%B0%91%E4%BA%8B%E5%8A%A1%E9%AB%98%E7%BA%A7%E4%B8%93%E5%91%98</t>
-  </si>
-  <si>
-    <t>联合国难民事务高级专员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%B7%A5%E4%B8%9A%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>联合国工业发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>联合国大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E5%9B%BD%E9%82%AE%E6%94%BF%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>万国邮政联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%AB%E7%94%9F%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界卫生组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WIPO</t>
-  </si>
-  <si>
-    <t>WIPO</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%94%E8%B1%A1%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界气象组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界贸易组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>绿党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>自由党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>憲法黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>深層政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>美國經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國醫療系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>美國人權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國社會問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>美国新闻自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>阿根廷政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>巴拉圭政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>巴西政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>秘鲁政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>海地政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2033,7 +2015,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -3193,7 +3175,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3277,7 +3259,7 @@
         <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
         <v>12</v>
@@ -3303,10 +3285,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
         <v>11</v>
@@ -3332,10 +3314,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
         <v>24</v>
@@ -3361,10 +3343,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
         <v>8</v>
@@ -3390,10 +3372,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3419,10 +3401,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -3448,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3477,10 +3459,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3506,10 +3488,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3535,10 +3517,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3564,10 +3546,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3593,10 +3575,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3651,10 +3633,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>17</v>
@@ -3680,10 +3662,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3709,10 +3691,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3738,10 +3720,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3767,10 +3749,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3796,10 +3778,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3825,10 +3807,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3854,10 +3836,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>79</v>
@@ -3883,10 +3865,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3912,10 +3894,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3941,10 +3923,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3970,10 +3952,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3999,10 +3981,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4028,10 +4010,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4057,10 +4039,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4086,10 +4068,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4115,10 +4097,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4144,10 +4126,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4173,10 +4155,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4202,10 +4184,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4231,10 +4213,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4260,10 +4242,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4289,10 +4271,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4318,10 +4300,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4347,10 +4329,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
@@ -4376,10 +4358,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -4405,10 +4387,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4434,10 +4416,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>28</v>
@@ -4463,10 +4445,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -4492,10 +4474,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4521,10 +4503,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4550,10 +4532,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4579,10 +4561,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4608,10 +4590,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>21</v>
@@ -4637,10 +4619,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>9</v>
@@ -4666,10 +4648,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4698,7 +4680,7 @@
         <v>101</v>
       </c>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4724,10 +4706,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4753,10 +4735,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4782,10 +4764,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4811,10 +4793,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4840,10 +4822,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4869,10 +4851,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4898,10 +4880,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4927,10 +4909,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4956,10 +4938,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4985,10 +4967,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5014,10 +4996,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5043,10 +5025,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5072,10 +5054,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5101,10 +5083,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5130,10 +5112,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5159,10 +5141,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5188,10 +5170,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5217,10 +5199,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5246,10 +5228,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5275,10 +5257,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5304,10 +5286,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5333,10 +5315,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5362,10 +5344,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5391,10 +5373,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5420,10 +5402,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5449,10 +5431,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5478,10 +5460,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5507,10 +5489,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5536,10 +5518,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5565,10 +5547,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5594,10 +5576,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5623,10 +5605,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5652,10 +5634,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5681,10 +5663,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5710,10 +5692,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5739,10 +5721,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5768,10 +5750,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5797,10 +5779,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="G139" t="n">
         <v>19</v>
@@ -5826,10 +5808,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5855,10 +5837,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5884,10 +5866,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5913,10 +5895,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5942,10 +5924,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5971,10 +5953,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="G145" t="n">
         <v>12</v>
@@ -6000,10 +5982,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6029,10 +6011,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="G147" t="n">
         <v>14</v>
@@ -6058,10 +6040,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6087,10 +6069,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6116,10 +6098,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6145,10 +6127,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6174,10 +6156,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6203,10 +6185,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6232,10 +6214,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6261,10 +6243,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6290,10 +6272,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6319,10 +6301,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6348,10 +6330,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6377,10 +6359,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6406,10 +6388,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6435,10 +6417,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6464,10 +6446,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -6493,10 +6475,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6522,10 +6504,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6551,10 +6533,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6580,10 +6562,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6609,10 +6591,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6638,10 +6620,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6667,10 +6649,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -6696,10 +6678,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6725,10 +6707,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6754,10 +6736,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6783,10 +6765,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6812,10 +6794,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6841,10 +6823,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6870,10 +6852,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6899,10 +6881,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6928,10 +6910,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6957,10 +6939,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6986,10 +6968,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7015,10 +6997,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7044,10 +7026,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7073,10 +7055,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7102,10 +7084,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7131,10 +7113,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7160,10 +7142,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7189,10 +7171,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7218,10 +7200,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7247,10 +7229,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7276,10 +7258,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7305,10 +7287,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7334,10 +7316,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7363,10 +7345,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7392,10 +7374,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7421,10 +7403,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7450,10 +7432,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7479,10 +7461,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7508,10 +7490,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7537,10 +7519,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -7566,10 +7548,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7595,10 +7577,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7624,10 +7606,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7653,10 +7635,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7682,10 +7664,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7711,10 +7693,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7740,10 +7722,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7769,10 +7751,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7798,10 +7780,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7827,10 +7809,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7943,10 +7925,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7972,10 +7954,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8001,10 +7983,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8030,10 +8012,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8059,10 +8041,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8088,10 +8070,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8117,10 +8099,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8146,10 +8128,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8175,10 +8157,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8204,10 +8186,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8233,10 +8215,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8262,10 +8244,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8291,10 +8273,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8320,10 +8302,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8349,10 +8331,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8378,10 +8360,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8407,10 +8389,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8436,10 +8418,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8465,10 +8447,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8494,10 +8476,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8523,10 +8505,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8552,10 +8534,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8581,10 +8563,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -8610,10 +8592,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8639,10 +8621,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8668,10 +8650,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8697,10 +8679,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8726,10 +8708,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8755,10 +8737,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8784,10 +8766,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8813,10 +8795,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8842,10 +8824,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -8854,6 +8836,64 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>244</v>
+      </c>
+      <c r="E245" t="s">
+        <v>462</v>
+      </c>
+      <c r="F245" t="s">
+        <v>463</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2</v>
+      </c>
+      <c r="H245" t="s">
+        <v>4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>245</v>
+      </c>
+      <c r="E246" t="s">
+        <v>462</v>
+      </c>
+      <c r="F246" t="s">
+        <v>464</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="s">
+        <v>4</v>
+      </c>
+      <c r="I246" t="n">
         <v>3</v>
       </c>
     </row>
